--- a/Data/Reports/AVON INDUSTRIAL LTDA.xlsx
+++ b/Data/Reports/AVON INDUSTRIAL LTDA.xlsx
@@ -9944,7 +9944,52 @@
       <c r="BT85" s="2" t="n"/>
     </row>
     <row r="86" ht="15.75" customHeight="1" s="18">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>000199334201452</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ALEXANDRE OLIVEIRA PINHEIRO</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>10.371,65</t>
+        </is>
+      </c>
       <c r="X86" s="47" t="n"/>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>00000028031</t>
+        </is>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>22/03/2017</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>12173718411</t>
+        </is>
+      </c>
       <c r="AZ86" s="23" t="n"/>
       <c r="BB86" s="23" t="n"/>
       <c r="BC86" s="2" t="n"/>
@@ -9967,7 +10012,52 @@
       <c r="BT86" s="2" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="18">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>00705</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>100033554201452</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>DANIEL GUEDES GONCALVES</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10.657,62</t>
+        </is>
+      </c>
       <c r="X87" s="47" t="n"/>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>00000023668</t>
+        </is>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>16/08/2016</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>13068682931</t>
+        </is>
+      </c>
       <c r="AZ87" s="23" t="n"/>
       <c r="BB87" s="23" t="n"/>
       <c r="BC87" s="2" t="n"/>
@@ -9990,7 +10080,52 @@
       <c r="BT87" s="2" t="n"/>
     </row>
     <row r="88" ht="15.75" customHeight="1" s="18">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>000000000274510</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>DEP DISPOS A JCJ ART P CLT</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>9.365,35</t>
+        </is>
+      </c>
       <c r="X88" s="47" t="n"/>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>00000004523</t>
+        </is>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>01/03/2014</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ88" s="23" t="n"/>
       <c r="BB88" s="23" t="n"/>
       <c r="BC88" s="2" t="n"/>
@@ -10013,7 +10148,52 @@
       <c r="BT88" s="2" t="n"/>
     </row>
     <row r="89" ht="15.75" customHeight="1" s="18">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>00701</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100175890201652</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>IGOR LUCIANO LOPES SILVA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>10.455,69</t>
+        </is>
+      </c>
       <c r="X89" s="47" t="n"/>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>00000030877</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>29/09/2017</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>12585392939</t>
+        </is>
+      </c>
       <c r="AZ89" s="23" t="n"/>
       <c r="BB89" s="23" t="n"/>
       <c r="BC89" s="2" t="n"/>
@@ -10036,7 +10216,52 @@
       <c r="BT89" s="2" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="18">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>000039733201252</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ISMAEL GOMES OLIVEIRA PENHA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>6.338,20</t>
+        </is>
+      </c>
       <c r="X90" s="47" t="n"/>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>00000010841</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>29/05/2015</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ90" s="23" t="n"/>
       <c r="BB90" s="23" t="n"/>
       <c r="BC90" s="2" t="n"/>
@@ -10059,7 +10284,52 @@
       <c r="BT90" s="2" t="n"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="18">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>00703</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100026980201452</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>MARCELO SILVA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>9.524,13</t>
+        </is>
+      </c>
       <c r="X91" s="47" t="n"/>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>00000010094</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>14/04/2015</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ91" s="23" t="n"/>
       <c r="BB91" s="23" t="n"/>
       <c r="BC91" s="2" t="n"/>
@@ -10082,7 +10352,52 @@
       <c r="BT91" s="2" t="n"/>
     </row>
     <row r="92" ht="15.75" customHeight="1" s="18">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>00720</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100004205201552</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>MARILEIDE BORGES SANTOS</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>20.220,91</t>
+        </is>
+      </c>
       <c r="X92" s="47" t="n"/>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>00000016610</t>
+        </is>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>20/11/2015</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ92" s="23" t="n"/>
       <c r="BB92" s="23" t="n"/>
       <c r="BC92" s="2" t="n"/>
@@ -10105,7 +10420,52 @@
       <c r="BT92" s="2" t="n"/>
     </row>
     <row r="93" ht="15.75" customHeight="1" s="18">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>00014</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>000000160092003</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>MARIO SERGIO DAMASCEMO</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>8.684,55</t>
+        </is>
+      </c>
       <c r="X93" s="47" t="n"/>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>00000000102</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>14/08/1997</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>12637676517</t>
+        </is>
+      </c>
       <c r="AZ93" s="23" t="n"/>
       <c r="BB93" s="23" t="n"/>
       <c r="BC93" s="2" t="n"/>
@@ -10128,7 +10488,52 @@
       <c r="BT93" s="2" t="n"/>
     </row>
     <row r="94" ht="15.75" customHeight="1" s="18">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>00038</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>006770082200952</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ODAIR CARLOS</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>10.110,90</t>
+        </is>
+      </c>
       <c r="X94" s="47" t="n"/>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>00000016700</t>
+        </is>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>19/11/2015</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ94" s="23" t="n"/>
       <c r="BB94" s="23" t="n"/>
       <c r="BC94" s="2" t="n"/>
@@ -10151,7 +10556,52 @@
       <c r="BT94" s="2" t="n"/>
     </row>
     <row r="95" ht="15.75" customHeight="1" s="18">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>00027</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>000000000092313</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ROMERILTON SILVA JESUS</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>397,56</t>
+        </is>
+      </c>
       <c r="X95" s="47" t="n"/>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>00000005333</t>
+        </is>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>03/04/2014</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ95" s="23" t="n"/>
       <c r="BB95" s="23" t="n"/>
       <c r="BC95" s="2" t="n"/>
@@ -10174,7 +10624,52 @@
       <c r="BT95" s="2" t="n"/>
     </row>
     <row r="96" ht="15.75" customHeight="1" s="18">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>00044</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>000307494201352</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ROSICLER OLIVEIRA MOREIRA GOMES</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>20.564,11</t>
+        </is>
+      </c>
       <c r="X96" s="47" t="n"/>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>00000029194</t>
+        </is>
+      </c>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>21/06/2017</t>
+        </is>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>13046060814</t>
+        </is>
+      </c>
       <c r="AZ96" s="23" t="n"/>
       <c r="BB96" s="23" t="n"/>
       <c r="BC96" s="2" t="n"/>
@@ -10197,7 +10692,52 @@
       <c r="BT96" s="2" t="n"/>
     </row>
     <row r="97" ht="15.75" customHeight="1" s="18">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>000253872201452</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>RUBEM BENFATO</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>10.485,32</t>
+        </is>
+      </c>
       <c r="X97" s="47" t="n"/>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>00000026250</t>
+        </is>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>22/12/2016</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>12528728036</t>
+        </is>
+      </c>
       <c r="AZ97" s="23" t="n"/>
       <c r="BB97" s="23" t="n"/>
       <c r="BC97" s="2" t="n"/>
@@ -10220,7 +10760,52 @@
       <c r="BT97" s="2" t="n"/>
     </row>
     <row r="98" ht="15.75" customHeight="1" s="18">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>000324313201352</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>RUDNEY TAVARES SILVA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>10.429,97</t>
+        </is>
+      </c>
       <c r="X98" s="47" t="n"/>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG98" t="inlineStr">
+        <is>
+          <t>00000030958</t>
+        </is>
+      </c>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>20/10/2017</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>12158009669</t>
+        </is>
+      </c>
       <c r="AZ98" s="23" t="n"/>
       <c r="BB98" s="23" t="n"/>
       <c r="BC98" s="2" t="n"/>
@@ -10243,7 +10828,52 @@
       <c r="BT98" s="2" t="n"/>
     </row>
     <row r="99" ht="15.75" customHeight="1" s="18">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>00056</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>000279861201252</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>WILLIAN CARDOZO SILVA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>10.711,08</t>
+        </is>
+      </c>
       <c r="X99" s="47" t="n"/>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG99" t="inlineStr">
+        <is>
+          <t>00000023587</t>
+        </is>
+      </c>
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>08/08/2016</t>
+        </is>
+      </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>12525516097</t>
+        </is>
+      </c>
       <c r="AZ99" s="23" t="n"/>
       <c r="BB99" s="23" t="n"/>
       <c r="BC99" s="2" t="n"/>
@@ -10266,7 +10896,52 @@
       <c r="BT99" s="2" t="n"/>
     </row>
     <row r="100" ht="15.75" customHeight="1" s="18">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>000199334201452</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ALEXANDRE OLIVEIRA PINHEIRO</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>10.371,65</t>
+        </is>
+      </c>
       <c r="X100" s="47" t="n"/>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG100" t="inlineStr">
+        <is>
+          <t>00000028031</t>
+        </is>
+      </c>
+      <c r="AH100" t="inlineStr">
+        <is>
+          <t>22/03/2017</t>
+        </is>
+      </c>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>12173718411</t>
+        </is>
+      </c>
       <c r="AZ100" s="23" t="n"/>
       <c r="BB100" s="23" t="n"/>
       <c r="BC100" s="2" t="n"/>
@@ -10289,7 +10964,52 @@
       <c r="BT100" s="2" t="n"/>
     </row>
     <row r="101" ht="15.75" customHeight="1" s="18">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>00705</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>100033554201452</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>DANIEL GUEDES GONCALVES</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>10.657,62</t>
+        </is>
+      </c>
       <c r="X101" s="47" t="n"/>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG101" t="inlineStr">
+        <is>
+          <t>00000023668</t>
+        </is>
+      </c>
+      <c r="AH101" t="inlineStr">
+        <is>
+          <t>16/08/2016</t>
+        </is>
+      </c>
+      <c r="AJ101" t="inlineStr">
+        <is>
+          <t>13068682931</t>
+        </is>
+      </c>
       <c r="AZ101" s="23" t="n"/>
       <c r="BB101" s="23" t="n"/>
       <c r="BC101" s="2" t="n"/>
@@ -10312,7 +11032,52 @@
       <c r="BT101" s="2" t="n"/>
     </row>
     <row r="102" ht="15.75" customHeight="1" s="18">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>000000000274510</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>DEP DISPOS A JCJ ART P CLT</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>9.365,35</t>
+        </is>
+      </c>
       <c r="X102" s="47" t="n"/>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG102" t="inlineStr">
+        <is>
+          <t>00000004523</t>
+        </is>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>01/03/2014</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ102" s="23" t="n"/>
       <c r="BB102" s="23" t="n"/>
       <c r="BC102" s="2" t="n"/>
@@ -10335,7 +11100,52 @@
       <c r="BT102" s="2" t="n"/>
     </row>
     <row r="103" ht="15.75" customHeight="1" s="18">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>00701</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>100175890201652</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>IGOR LUCIANO LOPES SILVA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>10.455,69</t>
+        </is>
+      </c>
       <c r="X103" s="47" t="n"/>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG103" t="inlineStr">
+        <is>
+          <t>00000030877</t>
+        </is>
+      </c>
+      <c r="AH103" t="inlineStr">
+        <is>
+          <t>29/09/2017</t>
+        </is>
+      </c>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>12585392939</t>
+        </is>
+      </c>
       <c r="AZ103" s="23" t="n"/>
       <c r="BB103" s="23" t="n"/>
       <c r="BC103" s="2" t="n"/>
@@ -10358,7 +11168,52 @@
       <c r="BT103" s="2" t="n"/>
     </row>
     <row r="104" ht="15.75" customHeight="1" s="18">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>000039733201252</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>ISMAEL GOMES OLIVEIRA PENHA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>6.338,20</t>
+        </is>
+      </c>
       <c r="X104" s="47" t="n"/>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t>00000010841</t>
+        </is>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>29/05/2015</t>
+        </is>
+      </c>
+      <c r="AJ104" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ104" s="23" t="n"/>
       <c r="BB104" s="23" t="n"/>
       <c r="BC104" s="2" t="n"/>
@@ -10381,7 +11236,52 @@
       <c r="BT104" s="2" t="n"/>
     </row>
     <row r="105" ht="15.75" customHeight="1" s="18">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>00703</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>100026980201452</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>MARCELO SILVA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>9.524,13</t>
+        </is>
+      </c>
       <c r="X105" s="47" t="n"/>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG105" t="inlineStr">
+        <is>
+          <t>00000010094</t>
+        </is>
+      </c>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>14/04/2015</t>
+        </is>
+      </c>
+      <c r="AJ105" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ105" s="23" t="n"/>
       <c r="BB105" s="23" t="n"/>
       <c r="BC105" s="2" t="n"/>
@@ -10404,7 +11304,52 @@
       <c r="BT105" s="2" t="n"/>
     </row>
     <row r="106" ht="15.75" customHeight="1" s="18">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>00720</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>100004205201552</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MARILEIDE BORGES SANTOS</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>20.220,91</t>
+        </is>
+      </c>
       <c r="X106" s="47" t="n"/>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG106" t="inlineStr">
+        <is>
+          <t>00000016610</t>
+        </is>
+      </c>
+      <c r="AH106" t="inlineStr">
+        <is>
+          <t>20/11/2015</t>
+        </is>
+      </c>
+      <c r="AJ106" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ106" s="23" t="n"/>
       <c r="BB106" s="23" t="n"/>
       <c r="BC106" s="2" t="n"/>
@@ -10427,7 +11372,52 @@
       <c r="BT106" s="2" t="n"/>
     </row>
     <row r="107" ht="15.75" customHeight="1" s="18">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>00014</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>000000160092003</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>MARIO SERGIO DAMASCEMO</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>8.684,55</t>
+        </is>
+      </c>
       <c r="X107" s="47" t="n"/>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>00000000102</t>
+        </is>
+      </c>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>14/08/1997</t>
+        </is>
+      </c>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>12637676517</t>
+        </is>
+      </c>
       <c r="AZ107" s="23" t="n"/>
       <c r="BB107" s="23" t="n"/>
       <c r="BC107" s="2" t="n"/>
@@ -10450,7 +11440,52 @@
       <c r="BT107" s="2" t="n"/>
     </row>
     <row r="108" ht="15.75" customHeight="1" s="18">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>00038</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>006770082200952</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ODAIR CARLOS</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>10.110,90</t>
+        </is>
+      </c>
       <c r="X108" s="47" t="n"/>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG108" t="inlineStr">
+        <is>
+          <t>00000016700</t>
+        </is>
+      </c>
+      <c r="AH108" t="inlineStr">
+        <is>
+          <t>19/11/2015</t>
+        </is>
+      </c>
+      <c r="AJ108" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ108" s="23" t="n"/>
       <c r="BB108" s="23" t="n"/>
       <c r="BC108" s="2" t="n"/>
@@ -10473,7 +11508,52 @@
       <c r="BT108" s="2" t="n"/>
     </row>
     <row r="109" ht="15.75" customHeight="1" s="18">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>00027</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>000000000092313</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ROMERILTON SILVA JESUS</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>397,56</t>
+        </is>
+      </c>
       <c r="X109" s="47" t="n"/>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG109" t="inlineStr">
+        <is>
+          <t>00000005333</t>
+        </is>
+      </c>
+      <c r="AH109" t="inlineStr">
+        <is>
+          <t>03/04/2014</t>
+        </is>
+      </c>
+      <c r="AJ109" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ109" s="23" t="n"/>
       <c r="BB109" s="23" t="n"/>
       <c r="BC109" s="2" t="n"/>
@@ -10496,7 +11576,52 @@
       <c r="BT109" s="2" t="n"/>
     </row>
     <row r="110" ht="15.75" customHeight="1" s="18">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>00044</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>000307494201352</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ROSICLER OLIVEIRA MOREIRA GOMES</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>20.564,11</t>
+        </is>
+      </c>
       <c r="X110" s="47" t="n"/>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t>00000029194</t>
+        </is>
+      </c>
+      <c r="AH110" t="inlineStr">
+        <is>
+          <t>21/06/2017</t>
+        </is>
+      </c>
+      <c r="AJ110" t="inlineStr">
+        <is>
+          <t>13046060814</t>
+        </is>
+      </c>
       <c r="AZ110" s="23" t="n"/>
       <c r="BB110" s="23" t="n"/>
       <c r="BC110" s="2" t="n"/>
@@ -10519,7 +11644,52 @@
       <c r="BT110" s="2" t="n"/>
     </row>
     <row r="111" ht="15.75" customHeight="1" s="18">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>000253872201452</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>RUBEM BENFATO</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>10.485,32</t>
+        </is>
+      </c>
       <c r="X111" s="47" t="n"/>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>00000026250</t>
+        </is>
+      </c>
+      <c r="AH111" t="inlineStr">
+        <is>
+          <t>22/12/2016</t>
+        </is>
+      </c>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t>12528728036</t>
+        </is>
+      </c>
       <c r="AZ111" s="23" t="n"/>
       <c r="BB111" s="23" t="n"/>
       <c r="BC111" s="2" t="n"/>
@@ -10542,7 +11712,52 @@
       <c r="BT111" s="2" t="n"/>
     </row>
     <row r="112" ht="15.75" customHeight="1" s="18">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>000324313201352</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>RUDNEY TAVARES SILVA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>10.429,97</t>
+        </is>
+      </c>
       <c r="X112" s="47" t="n"/>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>00000030958</t>
+        </is>
+      </c>
+      <c r="AH112" t="inlineStr">
+        <is>
+          <t>20/10/2017</t>
+        </is>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>12158009669</t>
+        </is>
+      </c>
       <c r="AZ112" s="23" t="n"/>
       <c r="BB112" s="23" t="n"/>
       <c r="BC112" s="2" t="n"/>
@@ -10565,7 +11780,52 @@
       <c r="BT112" s="2" t="n"/>
     </row>
     <row r="113" ht="15.75" customHeight="1" s="18">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>00056</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>000279861201252</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>WILLIAN CARDOZO SILVA</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>10.711,08</t>
+        </is>
+      </c>
       <c r="X113" s="47" t="n"/>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>00000023587</t>
+        </is>
+      </c>
+      <c r="AH113" t="inlineStr">
+        <is>
+          <t>08/08/2016</t>
+        </is>
+      </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>12525516097</t>
+        </is>
+      </c>
       <c r="AZ113" s="23" t="n"/>
       <c r="BB113" s="23" t="n"/>
       <c r="BC113" s="2" t="n"/>

--- a/Data/Reports/AVON INDUSTRIAL LTDA.xlsx
+++ b/Data/Reports/AVON INDUSTRIAL LTDA.xlsx
@@ -11848,7 +11848,52 @@
       <c r="BT113" s="2" t="n"/>
     </row>
     <row r="114" ht="15.75" customHeight="1" s="18">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>00058</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>000199334201452</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ALEXANDRE OLIVEIRA PINHEIRO</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>10.371,65</t>
+        </is>
+      </c>
       <c r="X114" s="47" t="n"/>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>00000028031</t>
+        </is>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t>22/03/2017</t>
+        </is>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>12173718411</t>
+        </is>
+      </c>
       <c r="AZ114" s="23" t="n"/>
       <c r="BB114" s="23" t="n"/>
       <c r="BC114" s="2" t="n"/>
@@ -11871,7 +11916,52 @@
       <c r="BT114" s="2" t="n"/>
     </row>
     <row r="115" ht="15.75" customHeight="1" s="18">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>00705</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>100033554201452</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>DANIEL GUEDES GONCALVES</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>10.657,62</t>
+        </is>
+      </c>
       <c r="X115" s="47" t="n"/>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>00000023668</t>
+        </is>
+      </c>
+      <c r="AH115" t="inlineStr">
+        <is>
+          <t>16/08/2016</t>
+        </is>
+      </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>13068682931</t>
+        </is>
+      </c>
       <c r="AZ115" s="23" t="n"/>
       <c r="BB115" s="23" t="n"/>
       <c r="BC115" s="2" t="n"/>
@@ -11894,7 +11984,52 @@
       <c r="BT115" s="2" t="n"/>
     </row>
     <row r="116" ht="15.75" customHeight="1" s="18">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>000000000274510</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>DEP DISPOS A JCJ ART P CLT</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>9.365,35</t>
+        </is>
+      </c>
       <c r="X116" s="47" t="n"/>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>00000004523</t>
+        </is>
+      </c>
+      <c r="AH116" t="inlineStr">
+        <is>
+          <t>01/03/2014</t>
+        </is>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ116" s="23" t="n"/>
       <c r="BB116" s="23" t="n"/>
       <c r="BC116" s="2" t="n"/>
@@ -11917,7 +12052,52 @@
       <c r="BT116" s="2" t="n"/>
     </row>
     <row r="117" ht="15.75" customHeight="1" s="18">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>00701</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>100175890201652</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>IGOR LUCIANO LOPES SILVA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>10.455,69</t>
+        </is>
+      </c>
       <c r="X117" s="47" t="n"/>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t>00000030877</t>
+        </is>
+      </c>
+      <c r="AH117" t="inlineStr">
+        <is>
+          <t>29/09/2017</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>12585392939</t>
+        </is>
+      </c>
       <c r="AZ117" s="23" t="n"/>
       <c r="BB117" s="23" t="n"/>
       <c r="BC117" s="2" t="n"/>
@@ -11940,7 +12120,52 @@
       <c r="BT117" s="2" t="n"/>
     </row>
     <row r="118" ht="15.75" customHeight="1" s="18">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>00010</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>000039733201252</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>ISMAEL GOMES OLIVEIRA PENHA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>6.338,20</t>
+        </is>
+      </c>
       <c r="X118" s="47" t="n"/>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>00000010841</t>
+        </is>
+      </c>
+      <c r="AH118" t="inlineStr">
+        <is>
+          <t>29/05/2015</t>
+        </is>
+      </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ118" s="23" t="n"/>
       <c r="BB118" s="23" t="n"/>
       <c r="BC118" s="2" t="n"/>
@@ -11963,7 +12188,52 @@
       <c r="BT118" s="2" t="n"/>
     </row>
     <row r="119" ht="15.75" customHeight="1" s="18">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>00703</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>100026980201452</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>MARCELO SILVA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>9.524,13</t>
+        </is>
+      </c>
       <c r="X119" s="47" t="n"/>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t>00000010094</t>
+        </is>
+      </c>
+      <c r="AH119" t="inlineStr">
+        <is>
+          <t>14/04/2015</t>
+        </is>
+      </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ119" s="23" t="n"/>
       <c r="BB119" s="23" t="n"/>
       <c r="BC119" s="2" t="n"/>
@@ -11986,7 +12256,52 @@
       <c r="BT119" s="2" t="n"/>
     </row>
     <row r="120" ht="15.75" customHeight="1" s="18">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>00720</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>100004205201552</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>MARILEIDE BORGES SANTOS</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>20.220,91</t>
+        </is>
+      </c>
       <c r="X120" s="47" t="n"/>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t>00000016610</t>
+        </is>
+      </c>
+      <c r="AH120" t="inlineStr">
+        <is>
+          <t>20/11/2015</t>
+        </is>
+      </c>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ120" s="23" t="n"/>
       <c r="BB120" s="23" t="n"/>
       <c r="BC120" s="2" t="n"/>
@@ -12009,7 +12324,52 @@
       <c r="BT120" s="2" t="n"/>
     </row>
     <row r="121" ht="15.75" customHeight="1" s="18">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>00014</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>000000160092003</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>MARIO SERGIO DAMASCEMO</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>8.684,55</t>
+        </is>
+      </c>
       <c r="X121" s="47" t="n"/>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t>00000000102</t>
+        </is>
+      </c>
+      <c r="AH121" t="inlineStr">
+        <is>
+          <t>14/08/1997</t>
+        </is>
+      </c>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t>12637676517</t>
+        </is>
+      </c>
       <c r="AZ121" s="23" t="n"/>
       <c r="BB121" s="23" t="n"/>
       <c r="BC121" s="2" t="n"/>
@@ -12032,7 +12392,52 @@
       <c r="BT121" s="2" t="n"/>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="18">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>00038</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>006770082200952</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ODAIR CARLOS</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>10.110,90</t>
+        </is>
+      </c>
       <c r="X122" s="47" t="n"/>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t>00000016700</t>
+        </is>
+      </c>
+      <c r="AH122" t="inlineStr">
+        <is>
+          <t>19/11/2015</t>
+        </is>
+      </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ122" s="23" t="n"/>
       <c r="BB122" s="23" t="n"/>
       <c r="BC122" s="2" t="n"/>
@@ -12055,7 +12460,52 @@
       <c r="BT122" s="2" t="n"/>
     </row>
     <row r="123" ht="15.75" customHeight="1" s="18">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>00027</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>000000000092313</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>ROMERILTON SILVA JESUS</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>397,56</t>
+        </is>
+      </c>
       <c r="X123" s="47" t="n"/>
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG123" t="inlineStr">
+        <is>
+          <t>00000005333</t>
+        </is>
+      </c>
+      <c r="AH123" t="inlineStr">
+        <is>
+          <t>03/04/2014</t>
+        </is>
+      </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AZ123" s="23" t="n"/>
       <c r="BB123" s="23" t="n"/>
       <c r="BC123" s="2" t="n"/>
@@ -12078,7 +12528,52 @@
       <c r="BT123" s="2" t="n"/>
     </row>
     <row r="124" ht="15.75" customHeight="1" s="18">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>00044</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>000307494201352</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ROSICLER OLIVEIRA MOREIRA GOMES</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>20.564,11</t>
+        </is>
+      </c>
       <c r="X124" s="47" t="n"/>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG124" t="inlineStr">
+        <is>
+          <t>00000029194</t>
+        </is>
+      </c>
+      <c r="AH124" t="inlineStr">
+        <is>
+          <t>21/06/2017</t>
+        </is>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>13046060814</t>
+        </is>
+      </c>
       <c r="AZ124" s="23" t="n"/>
       <c r="BB124" s="23" t="n"/>
       <c r="BC124" s="2" t="n"/>
@@ -12101,7 +12596,52 @@
       <c r="BT124" s="2" t="n"/>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="18">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>000253872201452</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>RUBEM BENFATO</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>10.485,32</t>
+        </is>
+      </c>
       <c r="X125" s="47" t="n"/>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG125" t="inlineStr">
+        <is>
+          <t>00000026250</t>
+        </is>
+      </c>
+      <c r="AH125" t="inlineStr">
+        <is>
+          <t>22/12/2016</t>
+        </is>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>12528728036</t>
+        </is>
+      </c>
       <c r="AZ125" s="23" t="n"/>
       <c r="BB125" s="23" t="n"/>
       <c r="BC125" s="2" t="n"/>
@@ -12124,7 +12664,52 @@
       <c r="BT125" s="2" t="n"/>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="18">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>000324313201352</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>RUDNEY TAVARES SILVA</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>10.429,97</t>
+        </is>
+      </c>
       <c r="X126" s="47" t="n"/>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG126" t="inlineStr">
+        <is>
+          <t>00000030958</t>
+        </is>
+      </c>
+      <c r="AH126" t="inlineStr">
+        <is>
+          <t>20/10/2017</t>
+        </is>
+      </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>12158009669</t>
+        </is>
+      </c>
       <c r="AZ126" s="23" t="n"/>
       <c r="BB126" s="23" t="n"/>
       <c r="BC126" s="2" t="n"/>
@@ -12147,7 +12732,52 @@
       <c r="BT126" s="2" t="n"/>
     </row>
     <row r="127" ht="15.75" customHeight="1" s="18">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>00056</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>000279861201252</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>AVON INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>WILLIAN CARDOZO SILVA</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>10.711,08</t>
+        </is>
+      </c>
       <c r="X127" s="47" t="n"/>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>09901305971780</t>
+        </is>
+      </c>
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t>00000023587</t>
+        </is>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
+          <t>08/08/2016</t>
+        </is>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>12525516097</t>
+        </is>
+      </c>
       <c r="AZ127" s="23" t="n"/>
       <c r="BB127" s="23" t="n"/>
       <c r="BC127" s="2" t="n"/>
